--- a/template/line.xlsx
+++ b/template/line.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="18135" windowHeight="7170"/>
+    <workbookView xWindow="120" yWindow="140" windowWidth="28680" windowHeight="17400"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="1" r:id="rId1"/>
     <sheet name="Table" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -35,8 +40,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,7 +75,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -79,12 +84,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -123,17 +140,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -173,45 +191,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="74878336"/>
-        <c:axId val="109335680"/>
+        <c:smooth val="0"/>
+        <c:axId val="2133908104"/>
+        <c:axId val="2133905112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74878336"/>
+        <c:axId val="2133908104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109335680"/>
+        <c:crossAx val="2133905112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109335680"/>
+        <c:axId val="2133905112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74878336"/>
+        <c:crossAx val="2133908104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -219,12 +254,15 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -235,15 +273,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>101599</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -260,6 +298,44 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1422400" y="88900"/>
+          <a:ext cx="5003800" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -549,27 +625,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
@@ -614,5 +695,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/template/line.xlsx
+++ b/template/line.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28705"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="140" windowWidth="28680" windowHeight="17400"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="28680" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="1" r:id="rId1"/>
@@ -79,6 +79,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -140,13 +145,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -191,13 +196,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -214,11 +219,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133908104"/>
-        <c:axId val="2133905112"/>
+        <c:axId val="42903424"/>
+        <c:axId val="42904960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133908104"/>
+        <c:axId val="42903424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -227,7 +232,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133905112"/>
+        <c:crossAx val="42904960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -235,7 +240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133905112"/>
+        <c:axId val="42904960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -246,7 +251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133908104"/>
+        <c:crossAx val="42903424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -302,34 +307,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1422400" y="88900"/>
-          <a:ext cx="5003800" cy="609600"/>
+          <a:off x="2828925" y="57150"/>
+          <a:ext cx="1123950" cy="1123950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -629,10 +640,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -650,9 +661,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -660,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -671,7 +682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -682,7 +693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
